--- a/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930BC626-5672-4078-850A-A3803CBCA8B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501A397-825A-4264-9915-EF8A38F0E8C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin review" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>Field_Name</t>
   </si>
@@ -152,33 +152,15 @@
     <t>Government Shutdown Dec 18-Jan19</t>
   </si>
   <si>
-    <t>may 25 memorial day/shutdown</t>
-  </si>
-  <si>
-    <t>vetrans/shut</t>
-  </si>
-  <si>
     <t>2017-12-29</t>
   </si>
   <si>
     <t>2019-11-12</t>
   </si>
   <si>
-    <t>2019-10-13</t>
-  </si>
-  <si>
-    <t>2019-09-24</t>
-  </si>
-  <si>
-    <t>2018-04-24</t>
-  </si>
-  <si>
     <t>2019-10-14</t>
   </si>
   <si>
-    <t>2018-04-25</t>
-  </si>
-  <si>
     <t>2018-10-13</t>
   </si>
   <si>
@@ -207,6 +189,57 @@
   </si>
   <si>
     <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>2017-11-23</t>
+  </si>
+  <si>
+    <t>Amend_Final_Concurrence_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>Amend_Final_Issues_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>Amended_Final_Announcement_Date__c</t>
+  </si>
+  <si>
+    <t>2019-11-23</t>
+  </si>
+  <si>
+    <t>2017-11-11</t>
+  </si>
+  <si>
+    <t>2017-11-18</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>may 25 memorial day/GOV shutdown</t>
+  </si>
+  <si>
+    <t>Thanks Giving/GOV shutdown</t>
+  </si>
+  <si>
+    <t>GOV shutdown</t>
+  </si>
+  <si>
+    <t>Idependendance day/GOV shutdown</t>
+  </si>
+  <si>
+    <t>ChriatMAS/ GOV shutdown</t>
+  </si>
+  <si>
+    <t>New Year/GOV shutdown</t>
+  </si>
+  <si>
+    <t>Veterans Day/GOV shutdown</t>
   </si>
 </sst>
 </file>
@@ -644,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -680,10 +713,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -705,13 +738,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -719,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -733,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -747,10 +780,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -764,10 +797,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -775,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -789,13 +822,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -803,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -817,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -845,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>21</v>
@@ -859,10 +892,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -873,13 +906,55 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -890,17 +965,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
@@ -915,13 +990,13 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
         <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>23</v>
@@ -938,19 +1013,19 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>27</v>
@@ -967,16 +1042,19 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -992,17 +1070,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>32</v>
@@ -1018,17 +1099,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
@@ -1048,13 +1132,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>38</v>
@@ -1074,69 +1161,84 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1144,33 +1246,135 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501A397-825A-4264-9915-EF8A38F0E8C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E3F11-9AD1-4195-9D06-C6FBE77DD307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin review" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="anti-circumvention" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="tFalse">[1]dropdowns!$G$1:$G$2</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
   <si>
     <t>Field_Name</t>
   </si>
@@ -240,6 +241,48 @@
   </si>
   <si>
     <t>Veterans Day/GOV shutdown</t>
+  </si>
+  <si>
+    <t>Calculated_Initiation_Signature__c</t>
+  </si>
+  <si>
+    <t>Initiation_Issues_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>Initiation_Concurrence_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>2019-10-17</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>2019-10-19</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-22</t>
+  </si>
+  <si>
+    <t>2019-10-24</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-06-19</t>
   </si>
 </sst>
 </file>
@@ -677,15 +720,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -860,22 +903,22 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
@@ -884,76 +927,20 @@
         <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -965,10 +952,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C2E557-44A9-42BF-BE43-93737AF8C89E}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -983,17 +1229,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -1379,7 +1625,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{71A28697-E5E8-42F7-9C59-D546C404E14F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{5E32C207-BB98-4FF6-949E-B0D724F4166B}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>

--- a/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
@@ -3,32 +3,40 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E3F11-9AD1-4195-9D06-C6FBE77DD307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFBADE-B76E-4B16-B04A-01126E37F744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="admin review" sheetId="1" r:id="rId1"/>
-    <sheet name="anti-circumvention" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet 1" sheetId="3" r:id="rId3"/>
+    <sheet name="investigation" sheetId="5" r:id="rId1"/>
+    <sheet name="petition" sheetId="4" r:id="rId2"/>
+    <sheet name="admin review" sheetId="1" r:id="rId3"/>
+    <sheet name="anti-circumvention" sheetId="2" r:id="rId4"/>
+    <sheet name="adm" sheetId="3" r:id="rId5"/>
+    <sheet name="inv" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="tFalse">[1]dropdowns!$G$1:$G$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="127">
   <si>
     <t>Field_Name</t>
   </si>
@@ -270,26 +278,152 @@
     <t>2019-10-22</t>
   </si>
   <si>
-    <t>2019-10-24</t>
-  </si>
-  <si>
-    <t>2019-10-25</t>
-  </si>
-  <si>
     <t>2019-10-10</t>
   </si>
   <si>
-    <t>2019-10-28</t>
-  </si>
-  <si>
     <t>2019-06-19</t>
+  </si>
+  <si>
+    <t>2019-04-24</t>
+  </si>
+  <si>
+    <t>2019-09-19</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>2018-11-27</t>
+  </si>
+  <si>
+    <t>Calculated_ITC_Prelim_Determination__c</t>
+  </si>
+  <si>
+    <t>Calculated_Prelim_Extension_Request_File__c</t>
+  </si>
+  <si>
+    <t>Calculated_Postponement_of_PrelimDeterFR__c</t>
+  </si>
+  <si>
+    <t>Est_ITC_Notification_to_DOC_of_Final_Det__c</t>
+  </si>
+  <si>
+    <t>Estimated_Order_FR_Published__c</t>
+  </si>
+  <si>
+    <t>Calculated_Order_FR_Signature__c</t>
+  </si>
+  <si>
+    <t>Calc_Amended_Prelim_Determination_Sig__c</t>
+  </si>
+  <si>
+    <t>Amend_Prelim_Issues_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>Amend_Prelim_Concurrence_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2019-12-15</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-06-16</t>
+  </si>
+  <si>
+    <t>2018-03-25</t>
+  </si>
+  <si>
+    <t>2018-08-12</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>2018-08-16</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t>2018-07-12</t>
+  </si>
+  <si>
+    <t>2018-03-06</t>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+  </si>
+  <si>
+    <t>2019-06-13</t>
+  </si>
+  <si>
+    <t>2019-04-07</t>
+  </si>
+  <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>2019-03-21</t>
+  </si>
+  <si>
+    <t>2019-04-06</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2019-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2019-08-09</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2018-08-07</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +458,14 @@
       <color rgb="FF080707"/>
       <name val="&amp;quot"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF080707"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -404,6 +550,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,11 +867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FAF9DE-7D81-4F5E-AEF1-CE1C8C6B6395}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -750,198 +898,310 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>45</v>
+      <c r="C10" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>45</v>
+      <c r="C14" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
+      <c r="B17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -951,11 +1211,321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56AE6AE-21BD-4128-9A0D-2FE68BF90395}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -985,7 +1555,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>45</v>
@@ -999,7 +1569,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>45</v>
@@ -1145,62 +1715,6 @@
         <v>45</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1209,12 +1723,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C2E557-44A9-42BF-BE43-93737AF8C89E}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1631,4 +2145,330 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DD527-315C-4A7D-BF25-8DF5A7AD154B}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
+++ b/ADCVD_API_SEGMENT/input_data/datapool/validate_admin_review_dates.xlsx
@@ -3,36 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAFDDA5-CEF4-4566-AFD5-C0833CB1DE26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD2B4F-1E1B-4734-8BAB-3B07C1684C6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="890" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="890" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedited_Review" sheetId="11" state="hidden" r:id="rId1"/>
-    <sheet name="expdted" sheetId="12" state="hidden" r:id="rId2"/>
-    <sheet name="petition" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="petion" sheetId="8" state="hidden" r:id="rId4"/>
-    <sheet name="investigation" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="inv" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="admin review" sheetId="1" state="hidden" r:id="rId7"/>
-    <sheet name="adm" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="anti-circumvention" sheetId="2" r:id="rId9"/>
-    <sheet name="Shipper_Review" sheetId="13" state="hidden" r:id="rId10"/>
-    <sheet name="shprReview" sheetId="14" state="hidden" r:id="rId11"/>
-    <sheet name="Scope_Inquiry" sheetId="15" state="hidden" r:id="rId12"/>
-    <sheet name="ScpInquiry" sheetId="16" state="hidden" r:id="rId13"/>
-    <sheet name="Sunset_Review" sheetId="17" state="hidden" r:id="rId14"/>
-    <sheet name="STReview" sheetId="18" state="hidden" r:id="rId15"/>
-    <sheet name="Litigation" sheetId="19" state="hidden" r:id="rId16"/>
-    <sheet name="Litig" sheetId="20" state="hidden" r:id="rId17"/>
-    <sheet name="Remand" sheetId="21" state="hidden" r:id="rId18"/>
-    <sheet name="Remd" sheetId="22" state="hidden" r:id="rId19"/>
-    <sheet name="Circvtion" sheetId="7" r:id="rId20"/>
-    <sheet name="changed-circumstance" sheetId="9" state="hidden" r:id="rId21"/>
-    <sheet name="Chnged Circ" sheetId="10" state="hidden" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId2"/>
+    <sheet name="expdted" sheetId="12" state="hidden" r:id="rId3"/>
+    <sheet name="petition" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="petion" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="investigation" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="inv" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="admin review" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="adm" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="anti-circumvention" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="Shipper_Review" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="shprReview" sheetId="14" state="hidden" r:id="rId12"/>
+    <sheet name="Scope_Inquiry" sheetId="15" state="hidden" r:id="rId13"/>
+    <sheet name="ScpInquiry" sheetId="16" state="hidden" r:id="rId14"/>
+    <sheet name="Sunset_Review" sheetId="17" state="hidden" r:id="rId15"/>
+    <sheet name="STReview" sheetId="18" state="hidden" r:id="rId16"/>
+    <sheet name="Litigation" sheetId="19" r:id="rId17"/>
+    <sheet name="Litig" sheetId="20" r:id="rId18"/>
+    <sheet name="Remand" sheetId="21" r:id="rId19"/>
+    <sheet name="Remd" sheetId="22" state="hidden" r:id="rId20"/>
+    <sheet name="Circvtion" sheetId="7" state="hidden" r:id="rId21"/>
+    <sheet name="changed-circumstance" sheetId="9" state="hidden" r:id="rId22"/>
+    <sheet name="Chnged Circ" sheetId="10" state="hidden" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="tFalse">[1]dropdowns!$G$1:$G$2</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="295">
   <si>
     <t>Field_Name</t>
   </si>
@@ -171,9 +172,6 @@
     <t>2019-11-12</t>
   </si>
   <si>
-    <t>2019-10-14</t>
-  </si>
-  <si>
     <t>2018-10-13</t>
   </si>
   <si>
@@ -423,15 +421,9 @@
     <t>2019-06-23</t>
   </si>
   <si>
-    <t>2019-06-30</t>
-  </si>
-  <si>
     <t>2019-07-07</t>
   </si>
   <si>
-    <t>2019-07-06</t>
-  </si>
-  <si>
     <t>2019-07-19</t>
   </si>
   <si>
@@ -447,24 +439,12 @@
     <t>2018-11-10</t>
   </si>
   <si>
-    <t>2018-01-29</t>
-  </si>
-  <si>
     <t>2018-01-06</t>
   </si>
   <si>
-    <t>2018-01-15</t>
-  </si>
-  <si>
     <t>2019-07-16</t>
   </si>
   <si>
-    <t>2018-05-13</t>
-  </si>
-  <si>
-    <t>2019-07-04</t>
-  </si>
-  <si>
     <t>2019-06-27</t>
   </si>
   <si>
@@ -474,238 +454,490 @@
     <t>2018-02-20</t>
   </si>
   <si>
-    <t>2018-02-19</t>
-  </si>
-  <si>
     <t>2018-02-26</t>
   </si>
   <si>
-    <t>2019-08-16</t>
+    <t>2019-05-26</t>
+  </si>
+  <si>
+    <t>2019-07-05</t>
+  </si>
+  <si>
+    <t>Notice_of_Intent_to_Participate__c</t>
+  </si>
+  <si>
+    <t>Rebuttal_Comments_Due__c</t>
+  </si>
+  <si>
+    <t>2019-07-20</t>
+  </si>
+  <si>
+    <t>2019-07-24</t>
+  </si>
+  <si>
+    <t>2019-06-04</t>
+  </si>
+  <si>
+    <t>2019-05-28</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-18</t>
+  </si>
+  <si>
+    <t>2019-06-02</t>
+  </si>
+  <si>
+    <t>Notify_Cluster_Coordinator_No_Interest__c</t>
+  </si>
+  <si>
+    <t>Substantive_Response_Due_For_All_Parties__c</t>
+  </si>
+  <si>
+    <t>Inform_Cluster_Coordinator_if_No_Respons__c</t>
+  </si>
+  <si>
+    <t>Calculated_Final_FR_Signature__c</t>
+  </si>
+  <si>
+    <t>Adequacy_Determination_Letter_to_ITC__c</t>
+  </si>
+  <si>
+    <t>2018-11-11</t>
+  </si>
+  <si>
+    <t>2019-10-11</t>
+  </si>
+  <si>
+    <t>2018-02-12</t>
+  </si>
+  <si>
+    <t>2018-03-24</t>
+  </si>
+  <si>
+    <t>2018-01-07</t>
+  </si>
+  <si>
+    <t>Calculated_Draft_Remand_release_to_party__c</t>
+  </si>
+  <si>
+    <t>Draft_Remand_Issues_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>Draft_Remand_Concurrence_Due_to_DAS__c</t>
+  </si>
+  <si>
+    <t>2019-07-27</t>
+  </si>
+  <si>
+    <t>2019-07-28</t>
+  </si>
+  <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
+    <t>2019-06-24</t>
+  </si>
+  <si>
+    <t>2019-06-25</t>
+  </si>
+  <si>
+    <t>2019-06-26</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>2019-09-22</t>
+  </si>
+  <si>
+    <t>2019-09-28</t>
+  </si>
+  <si>
+    <t>2019-09-26</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2019-11-19</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>2019-11-26</t>
+  </si>
+  <si>
+    <t>2019-11-08</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>2018-09-19</t>
+  </si>
+  <si>
+    <t>2018-04-05</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>2019-05-30</t>
+  </si>
+  <si>
+    <t>2018-02-16</t>
+  </si>
+  <si>
+    <t>2018-02-22</t>
+  </si>
+  <si>
+    <t>2019-06-11</t>
+  </si>
+  <si>
+    <t>2018-11-20</t>
+  </si>
+  <si>
+    <t>2018-01-12</t>
+  </si>
+  <si>
+    <t>2018-01-13</t>
+  </si>
+  <si>
+    <t>2018-11-13</t>
+  </si>
+  <si>
+    <t>2019-07-03</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2018-07-20</t>
+  </si>
+  <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
+    <t>2018-02-10</t>
+  </si>
+  <si>
+    <t>2018-01-10</t>
+  </si>
+  <si>
+    <t>2018-06-13</t>
+  </si>
+  <si>
+    <t>2018-01-6</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2018-02-18</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2018-09-08</t>
+  </si>
+  <si>
+    <t>2018-05-20</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>2018-05-12</t>
+  </si>
+  <si>
+    <t>2018-04-11</t>
+  </si>
+  <si>
+    <t>2018-02-13</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2018-02-17</t>
+  </si>
+  <si>
+    <t>2019-05-29</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-07-17</t>
+  </si>
+  <si>
+    <t>2019-07-21</t>
+  </si>
+  <si>
+    <t>2019-05-21</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
+  </si>
+  <si>
+    <t>2019-05-23</t>
+  </si>
+  <si>
+    <t>2019-05-24</t>
+  </si>
+  <si>
+    <t>2019-05-25</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-06-10</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2019-08-03</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>2019-04-27</t>
+  </si>
+  <si>
+    <t>2018-04-13</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-08-14</t>
+  </si>
+  <si>
+    <t>2019-08-21</t>
+  </si>
+  <si>
+    <t>2019-08-25</t>
+  </si>
+  <si>
+    <t>2018-02-25</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>2019-06-12</t>
+  </si>
+  <si>
+    <t>2019-07-14</t>
+  </si>
+  <si>
+    <t>2019-07-13</t>
+  </si>
+  <si>
+    <t>2019-05-12</t>
+  </si>
+  <si>
+    <t>2019-05-19</t>
+  </si>
+  <si>
+    <t>2018-03-29</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>2019-05-18</t>
+  </si>
+  <si>
+    <t>2019-07-10</t>
+  </si>
+  <si>
+    <t>2019-04-14</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2018-06-24</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-04-08</t>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+  </si>
+  <si>
+    <t>2018-04-02</t>
+  </si>
+  <si>
+    <t>2019-07-11</t>
+  </si>
+  <si>
+    <t>2019-07-12</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>2018-05-26</t>
+  </si>
+  <si>
+    <t>2018-05-27</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-30</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2018-10-21</t>
+  </si>
+  <si>
+    <t>2018-10-16</t>
+  </si>
+  <si>
+    <t>2018-08-25</t>
+  </si>
+  <si>
+    <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-08-28</t>
+  </si>
+  <si>
+    <t>2018-12-20</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>2018-10-07</t>
+  </si>
+  <si>
+    <t>2019-08-18</t>
   </si>
   <si>
     <t>2019-06-18</t>
   </si>
   <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2019-05-26</t>
-  </si>
-  <si>
-    <t>2019-07-05</t>
-  </si>
-  <si>
-    <t>Notice_of_Intent_to_Participate__c</t>
-  </si>
-  <si>
-    <t>Rebuttal_Comments_Due__c</t>
-  </si>
-  <si>
-    <t>2019-07-20</t>
-  </si>
-  <si>
-    <t>2019-07-24</t>
-  </si>
-  <si>
-    <t>2019-06-04</t>
-  </si>
-  <si>
-    <t>2019-05-28</t>
-  </si>
-  <si>
-    <t>2019-06-17</t>
-  </si>
-  <si>
-    <t>2019-07-08</t>
-  </si>
-  <si>
-    <t>2019-07-18</t>
-  </si>
-  <si>
-    <t>2019-07-22</t>
-  </si>
-  <si>
-    <t>2019-06-02</t>
-  </si>
-  <si>
-    <t>Notify_Cluster_Coordinator_No_Interest__c</t>
-  </si>
-  <si>
-    <t>Substantive_Response_Due_For_All_Parties__c</t>
-  </si>
-  <si>
-    <t>Inform_Cluster_Coordinator_if_No_Respons__c</t>
-  </si>
-  <si>
-    <t>Calculated_Final_FR_Signature__c</t>
-  </si>
-  <si>
-    <t>Adequacy_Determination_Letter_to_ITC__c</t>
-  </si>
-  <si>
-    <t>2018-11-11</t>
-  </si>
-  <si>
-    <t>2019-10-11</t>
-  </si>
-  <si>
-    <t>2018-02-12</t>
-  </si>
-  <si>
-    <t>2018-03-24</t>
-  </si>
-  <si>
-    <t>2018-01-07</t>
-  </si>
-  <si>
-    <t>Calculated_Draft_Remand_release_to_party__c</t>
-  </si>
-  <si>
-    <t>Draft_Remand_Issues_Due_to_DAS__c</t>
-  </si>
-  <si>
-    <t>Draft_Remand_Concurrence_Due_to_DAS__c</t>
-  </si>
-  <si>
-    <t>2019-07-25</t>
-  </si>
-  <si>
-    <t>2019-07-26</t>
-  </si>
-  <si>
-    <t>2019-07-27</t>
-  </si>
-  <si>
-    <t>2019-07-28</t>
-  </si>
-  <si>
-    <t>2019-10-13</t>
-  </si>
-  <si>
-    <t>2019-06-21</t>
-  </si>
-  <si>
-    <t>2019-06-24</t>
-  </si>
-  <si>
-    <t>2019-06-25</t>
-  </si>
-  <si>
-    <t>2019-06-26</t>
-  </si>
-  <si>
-    <t>2019-09-20</t>
-  </si>
-  <si>
-    <t>2019-09-22</t>
-  </si>
-  <si>
-    <t>2019-09-28</t>
-  </si>
-  <si>
-    <t>2019-09-26</t>
-  </si>
-  <si>
-    <t>2019-03-20</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-02-09</t>
-  </si>
-  <si>
-    <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>2020-04-02</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2019-11-19</t>
-  </si>
-  <si>
-    <t>2019-10-07</t>
-  </si>
-  <si>
-    <t>2019-11-26</t>
-  </si>
-  <si>
-    <t>2019-11-08</t>
-  </si>
-  <si>
-    <t>2019-10-18</t>
-  </si>
-  <si>
-    <t>2018-09-19</t>
-  </si>
-  <si>
-    <t>2018-04-05</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>2019-10-22</t>
-  </si>
-  <si>
-    <t>2019-05-30</t>
-  </si>
-  <si>
-    <t>2018-02-16</t>
-  </si>
-  <si>
-    <t>2018-02-22</t>
-  </si>
-  <si>
-    <t>2019-06-11</t>
-  </si>
-  <si>
-    <t>2018-11-20</t>
-  </si>
-  <si>
-    <t>2018-01-12</t>
-  </si>
-  <si>
-    <t>2018-01-13</t>
-  </si>
-  <si>
-    <t>2018-11-13</t>
-  </si>
-  <si>
-    <t>2019-07-03</t>
-  </si>
-  <si>
-    <t>2019-12-01</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2018-07-20</t>
-  </si>
-  <si>
-    <t>2019-03-13</t>
-  </si>
-  <si>
-    <t>2018-02-10</t>
-  </si>
-  <si>
-    <t>2018-01-10</t>
-  </si>
-  <si>
-    <t>2018-06-13</t>
-  </si>
-  <si>
-    <t>2018-01-6</t>
-  </si>
-  <si>
-    <t>2018-07-10</t>
+    <t>2018-04-27</t>
+  </si>
+  <si>
+    <t>2019-07-02</t>
+  </si>
+  <si>
+    <t>2018-11-21</t>
+  </si>
+  <si>
+    <t>2018-04-31</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>2018-09-21</t>
+  </si>
+  <si>
+    <t>2018-05-19</t>
+  </si>
+  <si>
+    <t>2018-12-06</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>2018-12-18</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
   </si>
 </sst>
 </file>
@@ -838,7 +1070,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -870,7 +1102,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D258D1-5EA0-4F6B-85E9-4F2336A57E51}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
+      <selection activeCell="A2" sqref="A2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1213,7 +1444,7 @@
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" ht="25.8" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1227,210 +1458,200 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
+      <c r="B10" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1440,6 +1661,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8EE71C-EA06-45E7-90A0-E7620B96986C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1471,55 +1895,55 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1527,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1541,55 +1965,55 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
+      <c r="B10" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1597,13 +2021,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1611,55 +2035,55 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1667,12 +2091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA2BBC-2677-4805-84E8-F00B45A35193}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1702,55 +2126,55 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1758,13 +2182,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1772,55 +2196,55 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
+      <c r="B10" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1828,13 +2252,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1842,55 +2266,55 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1898,12 +2322,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9841E6-9107-42D1-90F5-03C2AB1C780B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1933,55 +2357,55 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1989,55 +2413,55 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>41</v>
+      <c r="B7" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
+      <c r="B8" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
+      <c r="B9" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFBD378-2E91-4918-A2B1-514511780AF5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2054,6 +2478,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
@@ -2074,55 +2504,55 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
+      <c r="B4" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2130,55 +2560,55 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>41</v>
+      <c r="B7" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
+      <c r="B8" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
+      <c r="B9" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2186,12 +2616,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149C1F1A-4F97-493A-BC0E-76C0076B84DB}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2218,72 +2648,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2291,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2305,13 +2735,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2319,41 +2749,41 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
+      <c r="B10" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2361,13 +2791,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2378,10 +2808,10 @@
         <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2389,41 +2819,41 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>155</v>
+      <c r="B15" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2431,12 +2861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD3BE69-27F3-401C-A680-079269A1B838}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2463,79 +2893,225 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BD1E50-B3F1-49AF-8A9C-2D2C4D9C7B6E}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2565,13 +3141,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2579,13 +3155,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2593,13 +3169,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2607,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2621,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2635,13 +3211,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2649,13 +3225,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2663,13 +3239,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +3253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2506476-F1FB-4F61-9C4D-DDC7A9EB1140}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2712,13 +3288,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2729,10 +3305,10 @@
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2740,41 +3316,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>41</v>
+      <c r="B6" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2782,13 +3358,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2796,13 +3372,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2810,13 +3386,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2824,12 +3400,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9703A75F-7C0A-47ED-B745-54EA04F3AB8D}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2856,44 +3432,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2901,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2915,13 +3491,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2929,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2943,13 +3519,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3533,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1250F6B-6CD5-4A87-B0D8-1D939090CD51}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F82FFC2-DB9F-4354-BAA6-52A22A95B817}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2992,13 +3723,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3006,13 +3737,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3020,13 +3751,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3034,13 +3765,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3048,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3062,13 +3793,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3076,13 +3807,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3090,13 +3821,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3104,237 +3835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C288E826-6CB2-403E-859D-6190494345DF}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6CEF39-CE93-43B8-934E-54D75A8D23B2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3361,16 +3867,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3378,69 +3884,69 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>152</v>
+      <c r="B6" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>41</v>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3448,27 +3954,27 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>116</v>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3476,13 +3982,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3490,13 +3996,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3504,13 +4010,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3518,13 +4024,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3532,12 +4038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FEF5A-34F8-4BD0-AEFA-517D6295B134}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D13"/>
+      <selection activeCell="A2" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3564,106 +4070,178 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2001D-256B-4894-8AD0-F7E354C02A02}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3672,6 +4250,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
@@ -3689,44 +4273,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3734,13 +4318,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3748,41 +4332,41 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>41</v>
+      <c r="B7" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
+      <c r="B8" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3790,41 +4374,41 @@
         <v>9</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>41</v>
+      <c r="B11" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3832,13 +4416,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3846,13 +4430,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3861,6 +4445,237 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C288E826-6CB2-403E-859D-6190494345DF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56AE6AE-21BD-4128-9A0D-2FE68BF90395}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3892,7 +4707,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3900,7 +4715,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3908,7 +4723,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3920,7 +4735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D2CDB-4E0D-431B-977D-F1BABFDDCE3D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3952,44 +4767,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FAF9DE-7D81-4F5E-AEF1-CE1C8C6B6395}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -4029,7 +4844,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4037,7 +4852,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4045,7 +4860,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4055,7 +4870,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
@@ -4063,7 +4878,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
@@ -4071,7 +4886,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
@@ -4079,7 +4894,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
@@ -4095,13 +4910,13 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4109,15 +4924,15 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4127,7 +4942,7 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
@@ -4135,7 +4950,7 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
@@ -4143,13 +4958,13 @@
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4165,23 +4980,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4189,17 +5004,17 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
@@ -4209,7 +5024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7DD527-315C-4A7D-BF25-8DF5A7AD154B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -4225,100 +5040,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>41</v>
+      <c r="B4" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>41</v>
+      <c r="B5" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>188</v>
+      <c r="B6" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>190</v>
+      <c r="B7" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4326,125 +5141,125 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>41</v>
+      <c r="B9" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>184</v>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>189</v>
+      <c r="B14" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
+      <c r="B15" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>41</v>
+        <v>112</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4452,83 +5267,83 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>186</v>
+        <v>51</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>186</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>187</v>
+        <v>81</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>185</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4537,7 +5352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4595,7 +5410,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
@@ -4619,7 +5434,7 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
@@ -4657,7 +5472,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4665,7 +5480,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4673,7 +5488,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4685,7 +5500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C2E557-44A9-42BF-BE43-93737AF8C89E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -4719,7 +5534,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4748,7 +5563,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -4777,7 +5592,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>26</v>
@@ -4806,7 +5621,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>28</v>
@@ -4826,16 +5641,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>31</v>
@@ -4854,17 +5669,17 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>41</v>
+      <c r="B6" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>34</v>
@@ -4884,16 +5699,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4901,33 +5716,33 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>41</v>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4935,16 +5750,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4952,16 +5767,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4969,16 +5784,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4986,64 +5801,64 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5054,207 +5869,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86B2209-1179-4339-8C1F-8285042DA536}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>